--- a/CRUDCreateCode/data/input/models/Dashboardtestdata.xlsx
+++ b/CRUDCreateCode/data/input/models/Dashboardtestdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5E61DF-F052-364F-8025-3F2CD26A4099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE475904-86D4-E44B-9DA9-8F150B04D0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" activeTab="6" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>

--- a/CRUDCreateCode/data/input/models/Dashboardtestdata.xlsx
+++ b/CRUDCreateCode/data/input/models/Dashboardtestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE475904-86D4-E44B-9DA9-8F150B04D0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563BDBF7-2498-5942-9AE5-8160F63FB49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" activeTab="6" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" activeTab="9" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="urls" sheetId="4" r:id="rId5"/>
     <sheet name="forms" sheetId="6" r:id="rId6"/>
     <sheet name="html" sheetId="5" r:id="rId7"/>
+    <sheet name="imports" sheetId="8" r:id="rId8"/>
+    <sheet name="admin" sheetId="9" r:id="rId9"/>
+    <sheet name="apps" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>Variable</t>
   </si>
@@ -203,12 +206,15 @@
         verbose_name = 'Dashboard'
         verbose_name_plural = 'Dashboards'</t>
   </si>
+  <si>
+    <t>model_name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +232,13 @@
       <sz val="10"/>
       <color rgb="FF0C0D0E"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,13 +261,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,6 +783,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22145F24-C4CA-1A44-83FF-DC3AD09A10BB}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0437A48-3006-3A4F-8E27-223B720E6D4E}">
   <dimension ref="A1:B4"/>
@@ -909,7 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF3DF2-641B-5E44-AA75-D6FFD80FBD8B}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -958,4 +995,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F3E865-9989-324F-BD18-3FAAFF6AF449}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3271168-9931-5F48-B241-002C0200E3EB}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>